--- a/output/meral/2021/sheets/year_2021.xlsx
+++ b/output/meral/2021/sheets/year_2021.xlsx
@@ -481,159 +481,135 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>32.70645161290322</v>
+        <v>46.60424162604509</v>
       </c>
       <c r="C2" t="n">
-        <v>12.7258064516129</v>
+        <v>42.37091494233492</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>02</t>
-        </is>
+      <c r="A3" t="n">
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>35.09285714285714</v>
+        <v>47.02952439314689</v>
       </c>
       <c r="C3" t="n">
-        <v>11.75714285714286</v>
+        <v>41.35254707896677</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>03</t>
-        </is>
+      <c r="A4" t="n">
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>39.71290322580645</v>
+        <v>45.67243850619406</v>
       </c>
       <c r="C4" t="n">
-        <v>23.89032258064516</v>
+        <v>40.10918533331505</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>04</t>
-        </is>
+      <c r="A5" t="n">
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>43.74</v>
+        <v>50.28818310102231</v>
       </c>
       <c r="C5" t="n">
-        <v>23.31333333333334</v>
+        <v>45.12968481771392</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>05</t>
-        </is>
+      <c r="A6" t="n">
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>36.47096774193549</v>
+        <v>50.34671263645252</v>
       </c>
       <c r="C6" t="n">
-        <v>18.55483870967742</v>
+        <v>44.34275555638841</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>06</t>
-        </is>
+      <c r="A7" t="n">
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>45.35</v>
+        <v>48.84681940247562</v>
       </c>
       <c r="C7" t="n">
-        <v>24.67333333333334</v>
+        <v>43.11242515712352</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>07</t>
-        </is>
+      <c r="A8" t="n">
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>43.45806451612903</v>
+        <v>47.59642577665482</v>
       </c>
       <c r="C8" t="n">
-        <v>16.68064516129032</v>
+        <v>42.91992443444617</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>08</t>
-        </is>
+      <c r="A9" t="n">
+        <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>46.79677419354838</v>
+        <v>49.10534788176668</v>
       </c>
       <c r="C9" t="n">
-        <v>25.04193548387097</v>
+        <v>42.60511314571039</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>09</t>
-        </is>
+      <c r="A10" t="n">
+        <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>40.49666666666666</v>
+        <v>48.27415592955078</v>
       </c>
       <c r="C10" t="n">
-        <v>27.44666666666667</v>
+        <v>43.43353762006453</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A11" t="n">
+        <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>32.72903225806451</v>
+        <v>50.83662287731281</v>
       </c>
       <c r="C11" t="n">
-        <v>22.61612903225807</v>
+        <v>46.72336131537624</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+      <c r="A12" t="n">
+        <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>41.17333333333333</v>
+        <v>48.49494702450806</v>
       </c>
       <c r="C12" t="n">
-        <v>25.39666666666667</v>
+        <v>44.19760396858513</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="A13" t="n">
+        <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>38.46774193548387</v>
+        <v>47.63314635516471</v>
       </c>
       <c r="C13" t="n">
-        <v>24.86129032258065</v>
+        <v>42.91236904425089</v>
       </c>
     </row>
   </sheetData>
